--- a/examples/source2/9.코로나 일일 확진자수 엑셀 보고서 만들기/코로나확진자보고서.xlsx
+++ b/examples/source2/9.코로나 일일 확진자수 엑셀 보고서 만들기/코로나확진자보고서.xlsx
@@ -863,7 +863,7 @@
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -1087,7 +1087,7 @@
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -2755,6 +2755,94 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!A2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$B$1:$R$2</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$2:$R$2</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!A3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$B$1:$R$2</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$3:$R$3</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -8952,7 +9040,7 @@
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -11154,7 +11242,7 @@
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -11749,6 +11837,28 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="10800000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="18" name="Chart 18"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -12052,7 +12162,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>20220830일 코로나 현황</t>
+          <t>20230122일 코로나 현황</t>
         </is>
       </c>
     </row>
@@ -12155,61 +12265,61 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1035</v>
+        <v>341</v>
       </c>
       <c r="C3" t="n">
-        <v>7762</v>
+        <v>1044</v>
       </c>
       <c r="D3" t="n">
-        <v>4940</v>
+        <v>1052</v>
       </c>
       <c r="E3" t="n">
-        <v>4523</v>
+        <v>635</v>
       </c>
       <c r="F3" t="n">
-        <v>3957</v>
+        <v>677</v>
       </c>
       <c r="G3" t="n">
-        <v>5304</v>
+        <v>798</v>
       </c>
       <c r="H3" t="n">
-        <v>3789</v>
+        <v>570</v>
       </c>
       <c r="I3" t="n">
-        <v>3192</v>
+        <v>451</v>
       </c>
       <c r="J3" t="n">
-        <v>30289</v>
+        <v>4145</v>
       </c>
       <c r="K3" t="n">
-        <v>1067</v>
+        <v>159</v>
       </c>
       <c r="L3" t="n">
-        <v>2103</v>
+        <v>459</v>
       </c>
       <c r="M3" t="n">
-        <v>3884</v>
+        <v>467</v>
       </c>
       <c r="N3" t="n">
-        <v>2953</v>
+        <v>647</v>
       </c>
       <c r="O3" t="n">
-        <v>6477</v>
+        <v>938</v>
       </c>
       <c r="P3" t="n">
-        <v>6108</v>
+        <v>1028</v>
       </c>
       <c r="Q3" t="n">
-        <v>7813</v>
+        <v>888</v>
       </c>
       <c r="R3" t="n">
-        <v>20418</v>
+        <v>2315</v>
       </c>
       <c r="S3" t="n">
-        <v>115638</v>
+        <v>16624</v>
       </c>
     </row>
   </sheetData>
